--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.571357919321448</v>
+        <v>1.279157333333333</v>
       </c>
       <c r="H2">
-        <v>0.571357919321448</v>
+        <v>3.837472</v>
       </c>
       <c r="I2">
-        <v>0.05627439032427335</v>
+        <v>0.1094775343043046</v>
       </c>
       <c r="J2">
-        <v>0.05627439032427335</v>
+        <v>0.1094775343043046</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N2">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O2">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P2">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q2">
-        <v>13.67327161247618</v>
+        <v>43.77118162904534</v>
       </c>
       <c r="R2">
-        <v>13.67327161247618</v>
+        <v>393.940634661408</v>
       </c>
       <c r="S2">
-        <v>0.01853943674907683</v>
+        <v>0.0443046979200615</v>
       </c>
       <c r="T2">
-        <v>0.01853943674907683</v>
+        <v>0.0443046979200615</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.571357919321448</v>
+        <v>1.279157333333333</v>
       </c>
       <c r="H3">
-        <v>0.571357919321448</v>
+        <v>3.837472</v>
       </c>
       <c r="I3">
-        <v>0.05627439032427335</v>
+        <v>0.1094775343043046</v>
       </c>
       <c r="J3">
-        <v>0.05627439032427335</v>
+        <v>0.1094775343043046</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N3">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O3">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P3">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q3">
-        <v>7.910917026686427</v>
+        <v>17.85298187097245</v>
       </c>
       <c r="R3">
-        <v>7.910917026686427</v>
+        <v>160.676836838752</v>
       </c>
       <c r="S3">
-        <v>0.01072632432091998</v>
+        <v>0.01807058752649488</v>
       </c>
       <c r="T3">
-        <v>0.01072632432091998</v>
+        <v>0.01807058752649488</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.571357919321448</v>
+        <v>1.279157333333333</v>
       </c>
       <c r="H4">
-        <v>0.571357919321448</v>
+        <v>3.837472</v>
       </c>
       <c r="I4">
-        <v>0.05627439032427335</v>
+        <v>0.1094775343043046</v>
       </c>
       <c r="J4">
-        <v>0.05627439032427335</v>
+        <v>0.1094775343043046</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N4">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O4">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P4">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q4">
-        <v>7.801060028663665</v>
+        <v>18.49486984301155</v>
       </c>
       <c r="R4">
-        <v>7.801060028663665</v>
+        <v>166.453828587104</v>
       </c>
       <c r="S4">
-        <v>0.01057737044038505</v>
+        <v>0.01872029931496628</v>
       </c>
       <c r="T4">
-        <v>0.01057737044038505</v>
+        <v>0.01872029931496628</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.571357919321448</v>
+        <v>1.279157333333333</v>
       </c>
       <c r="H5">
-        <v>0.571357919321448</v>
+        <v>3.837472</v>
       </c>
       <c r="I5">
-        <v>0.05627439032427335</v>
+        <v>0.1094775343043046</v>
       </c>
       <c r="J5">
-        <v>0.05627439032427335</v>
+        <v>0.1094775343043046</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N5">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O5">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P5">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q5">
-        <v>5.819121322891631</v>
+        <v>13.61024170161067</v>
       </c>
       <c r="R5">
-        <v>5.819121322891631</v>
+        <v>122.492175314496</v>
       </c>
       <c r="S5">
-        <v>0.007890081814985347</v>
+        <v>0.01377613362872416</v>
       </c>
       <c r="T5">
-        <v>0.007890081814985347</v>
+        <v>0.01377613362872416</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.571357919321448</v>
+        <v>1.279157333333333</v>
       </c>
       <c r="H6">
-        <v>0.571357919321448</v>
+        <v>3.837472</v>
       </c>
       <c r="I6">
-        <v>0.05627439032427335</v>
+        <v>0.1094775343043046</v>
       </c>
       <c r="J6">
-        <v>0.05627439032427335</v>
+        <v>0.1094775343043046</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N6">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O6">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P6">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q6">
-        <v>4.556794245725531</v>
+        <v>10.470365828288</v>
       </c>
       <c r="R6">
-        <v>4.556794245725531</v>
+        <v>94.233292454592</v>
       </c>
       <c r="S6">
-        <v>0.006178506585073728</v>
+        <v>0.01059798657176329</v>
       </c>
       <c r="T6">
-        <v>0.006178506585073728</v>
+        <v>0.01059798657176329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.571357919321448</v>
+        <v>1.279157333333333</v>
       </c>
       <c r="H7">
-        <v>0.571357919321448</v>
+        <v>3.837472</v>
       </c>
       <c r="I7">
-        <v>0.05627439032427335</v>
+        <v>0.1094775343043046</v>
       </c>
       <c r="J7">
-        <v>0.05627439032427335</v>
+        <v>0.1094775343043046</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.04979604542393</v>
+        <v>3.095449666666667</v>
       </c>
       <c r="N7">
-        <v>3.04979604542393</v>
+        <v>9.286349</v>
       </c>
       <c r="O7">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="P7">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="Q7">
-        <v>1.742525122868197</v>
+        <v>3.959567141080889</v>
       </c>
       <c r="R7">
-        <v>1.742525122868197</v>
+        <v>35.636104269728</v>
       </c>
       <c r="S7">
-        <v>0.002362670413832427</v>
+        <v>0.004007829342294511</v>
       </c>
       <c r="T7">
-        <v>0.002362670413832427</v>
+        <v>0.004007829342294511</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.75182856576169</v>
+        <v>3.132367666666667</v>
       </c>
       <c r="H8">
-        <v>2.75182856576169</v>
+        <v>9.397103</v>
       </c>
       <c r="I8">
-        <v>0.2710340919034944</v>
+        <v>0.2680857778359253</v>
       </c>
       <c r="J8">
-        <v>0.2710340919034944</v>
+        <v>0.2680857778359253</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N8">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O8">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P8">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q8">
-        <v>65.85451629919835</v>
+        <v>107.1857468145297</v>
       </c>
       <c r="R8">
-        <v>65.85451629919835</v>
+        <v>964.671721330767</v>
       </c>
       <c r="S8">
-        <v>0.089291405464075</v>
+        <v>0.1084922078229375</v>
       </c>
       <c r="T8">
-        <v>0.089291405464075</v>
+        <v>0.1084922078229375</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.75182856576169</v>
+        <v>3.132367666666667</v>
       </c>
       <c r="H9">
-        <v>2.75182856576169</v>
+        <v>9.397103</v>
       </c>
       <c r="I9">
-        <v>0.2710340919034944</v>
+        <v>0.2680857778359253</v>
       </c>
       <c r="J9">
-        <v>0.2710340919034944</v>
+        <v>0.2680857778359253</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N9">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O9">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P9">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q9">
-        <v>38.10131393866032</v>
+        <v>43.71792406528589</v>
       </c>
       <c r="R9">
-        <v>38.10131393866032</v>
+        <v>393.461316587573</v>
       </c>
       <c r="S9">
-        <v>0.0516611473714878</v>
+        <v>0.04425079121280563</v>
       </c>
       <c r="T9">
-        <v>0.0516611473714878</v>
+        <v>0.04425079121280563</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.75182856576169</v>
+        <v>3.132367666666667</v>
       </c>
       <c r="H10">
-        <v>2.75182856576169</v>
+        <v>9.397103</v>
       </c>
       <c r="I10">
-        <v>0.2710340919034944</v>
+        <v>0.2680857778359253</v>
       </c>
       <c r="J10">
-        <v>0.2710340919034944</v>
+        <v>0.2680857778359253</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N10">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O10">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P10">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q10">
-        <v>37.57221017535397</v>
+        <v>45.28976286638011</v>
       </c>
       <c r="R10">
-        <v>37.57221017535397</v>
+        <v>407.607865797421</v>
       </c>
       <c r="S10">
-        <v>0.05094374146955529</v>
+        <v>0.04584178877489337</v>
       </c>
       <c r="T10">
-        <v>0.05094374146955529</v>
+        <v>0.04584178877489337</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.75182856576169</v>
+        <v>3.132367666666667</v>
       </c>
       <c r="H11">
-        <v>2.75182856576169</v>
+        <v>9.397103</v>
       </c>
       <c r="I11">
-        <v>0.2710340919034944</v>
+        <v>0.2680857778359253</v>
       </c>
       <c r="J11">
-        <v>0.2710340919034944</v>
+        <v>0.2680857778359253</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N11">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O11">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P11">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q11">
-        <v>28.02660774000237</v>
+        <v>33.32841076753934</v>
       </c>
       <c r="R11">
-        <v>28.02660774000237</v>
+        <v>299.955696907854</v>
       </c>
       <c r="S11">
-        <v>0.03800096540266591</v>
+        <v>0.0337346426634213</v>
       </c>
       <c r="T11">
-        <v>0.03800096540266591</v>
+        <v>0.0337346426634213</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.75182856576169</v>
+        <v>3.132367666666667</v>
       </c>
       <c r="H12">
-        <v>2.75182856576169</v>
+        <v>9.397103</v>
       </c>
       <c r="I12">
-        <v>0.2710340919034944</v>
+        <v>0.2680857778359253</v>
       </c>
       <c r="J12">
-        <v>0.2710340919034944</v>
+        <v>0.2680857778359253</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N12">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O12">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P12">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q12">
-        <v>21.94686754071441</v>
+        <v>25.639563268762</v>
       </c>
       <c r="R12">
-        <v>21.94686754071441</v>
+        <v>230.756069418858</v>
       </c>
       <c r="S12">
-        <v>0.02975751335475426</v>
+        <v>0.02595207767183096</v>
       </c>
       <c r="T12">
-        <v>0.02975751335475426</v>
+        <v>0.02595207767183096</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.75182856576169</v>
+        <v>3.132367666666667</v>
       </c>
       <c r="H13">
-        <v>2.75182856576169</v>
+        <v>9.397103</v>
       </c>
       <c r="I13">
-        <v>0.2710340919034944</v>
+        <v>0.2680857778359253</v>
       </c>
       <c r="J13">
-        <v>0.2710340919034944</v>
+        <v>0.2680857778359253</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.04979604542393</v>
+        <v>3.095449666666667</v>
       </c>
       <c r="N13">
-        <v>3.04979604542393</v>
+        <v>9.286349</v>
       </c>
       <c r="O13">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="P13">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="Q13">
-        <v>8.392515877544607</v>
+        <v>9.696086449660777</v>
       </c>
       <c r="R13">
-        <v>8.392515877544607</v>
+        <v>87.26477804694699</v>
       </c>
       <c r="S13">
-        <v>0.01137931884095617</v>
+        <v>0.009814269690036506</v>
       </c>
       <c r="T13">
-        <v>0.01137931884095617</v>
+        <v>0.009814269690036506</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.13505001727848</v>
+        <v>1.199985</v>
       </c>
       <c r="H14">
-        <v>1.13505001727848</v>
+        <v>3.599955</v>
       </c>
       <c r="I14">
-        <v>0.1117937558050482</v>
+        <v>0.1027015173026547</v>
       </c>
       <c r="J14">
-        <v>0.1117937558050482</v>
+        <v>0.1027015173026547</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N14">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O14">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P14">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q14">
-        <v>27.16309104182193</v>
+        <v>41.062002318555</v>
       </c>
       <c r="R14">
-        <v>27.16309104182193</v>
+        <v>369.558020866995</v>
       </c>
       <c r="S14">
-        <v>0.03683013272549737</v>
+        <v>0.04156249708162431</v>
       </c>
       <c r="T14">
-        <v>0.03683013272549737</v>
+        <v>0.0415624970816243</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.13505001727848</v>
+        <v>1.199985</v>
       </c>
       <c r="H15">
-        <v>1.13505001727848</v>
+        <v>3.599955</v>
       </c>
       <c r="I15">
-        <v>0.1117937558050482</v>
+        <v>0.1027015173026547</v>
       </c>
       <c r="J15">
-        <v>0.1117937558050482</v>
+        <v>0.1027015173026547</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N15">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O15">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P15">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q15">
-        <v>15.71569449583016</v>
+        <v>16.747987047545</v>
       </c>
       <c r="R15">
-        <v>15.71569449583016</v>
+        <v>150.731883427905</v>
       </c>
       <c r="S15">
-        <v>0.02130873519746412</v>
+        <v>0.01695212418981634</v>
       </c>
       <c r="T15">
-        <v>0.02130873519746412</v>
+        <v>0.01695212418981634</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.13505001727848</v>
+        <v>1.199985</v>
       </c>
       <c r="H16">
-        <v>1.13505001727848</v>
+        <v>3.599955</v>
       </c>
       <c r="I16">
-        <v>0.1117937558050482</v>
+        <v>0.1027015173026547</v>
       </c>
       <c r="J16">
-        <v>0.1117937558050482</v>
+        <v>0.1027015173026547</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N16">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O16">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P16">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q16">
-        <v>15.49745443423797</v>
+        <v>17.350145920465</v>
       </c>
       <c r="R16">
-        <v>15.49745443423797</v>
+        <v>156.151313284185</v>
       </c>
       <c r="S16">
-        <v>0.0210128259277096</v>
+        <v>0.0175616226308386</v>
       </c>
       <c r="T16">
-        <v>0.0210128259277096</v>
+        <v>0.01756162263083859</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.13505001727848</v>
+        <v>1.199985</v>
       </c>
       <c r="H17">
-        <v>1.13505001727848</v>
+        <v>3.599955</v>
       </c>
       <c r="I17">
-        <v>0.1117937558050482</v>
+        <v>0.1027015173026547</v>
       </c>
       <c r="J17">
-        <v>0.1117937558050482</v>
+        <v>0.1027015173026547</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N17">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O17">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P17">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q17">
-        <v>11.560168389611</v>
+        <v>12.76784759991</v>
       </c>
       <c r="R17">
-        <v>11.560168389611</v>
+        <v>114.91062839919</v>
       </c>
       <c r="S17">
-        <v>0.01567430361526024</v>
+        <v>0.01292347179012477</v>
       </c>
       <c r="T17">
-        <v>0.01567430361526024</v>
+        <v>0.01292347179012476</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.13505001727848</v>
+        <v>1.199985</v>
       </c>
       <c r="H18">
-        <v>1.13505001727848</v>
+        <v>3.599955</v>
       </c>
       <c r="I18">
-        <v>0.1117937558050482</v>
+        <v>0.1027015173026547</v>
       </c>
       <c r="J18">
-        <v>0.1117937558050482</v>
+        <v>0.1027015173026547</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N18">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O18">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P18">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q18">
-        <v>9.052450683606175</v>
+        <v>9.822311619569998</v>
       </c>
       <c r="R18">
-        <v>9.052450683606175</v>
+        <v>88.40080457612999</v>
       </c>
       <c r="S18">
-        <v>0.01227411709716348</v>
+        <v>0.00994203338785328</v>
       </c>
       <c r="T18">
-        <v>0.01227411709716348</v>
+        <v>0.00994203338785328</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.13505001727848</v>
+        <v>1.199985</v>
       </c>
       <c r="H19">
-        <v>1.13505001727848</v>
+        <v>3.599955</v>
       </c>
       <c r="I19">
-        <v>0.1117937558050482</v>
+        <v>0.1027015173026547</v>
       </c>
       <c r="J19">
-        <v>0.1117937558050482</v>
+        <v>0.1027015173026547</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.04979604542393</v>
+        <v>3.095449666666667</v>
       </c>
       <c r="N19">
-        <v>3.04979604542393</v>
+        <v>9.286349</v>
       </c>
       <c r="O19">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="P19">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="Q19">
-        <v>3.461671054054272</v>
+        <v>3.714493168255</v>
       </c>
       <c r="R19">
-        <v>3.461671054054272</v>
+        <v>33.43043851429499</v>
       </c>
       <c r="S19">
-        <v>0.004693641241953432</v>
+        <v>0.00375976822239741</v>
       </c>
       <c r="T19">
-        <v>0.004693641241953432</v>
+        <v>0.00375976822239741</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.830773949588506</v>
+        <v>0.8452883333333334</v>
       </c>
       <c r="H20">
-        <v>0.830773949588506</v>
+        <v>2.535865</v>
       </c>
       <c r="I20">
-        <v>0.08182488756943149</v>
+        <v>0.07234456630005</v>
       </c>
       <c r="J20">
-        <v>0.08182488756943149</v>
+        <v>0.07234456630005</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N20">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O20">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P20">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q20">
-        <v>19.88140441771386</v>
+        <v>28.92472114499834</v>
       </c>
       <c r="R20">
-        <v>19.88140441771386</v>
+        <v>260.322490304985</v>
       </c>
       <c r="S20">
-        <v>0.02695697490194686</v>
+        <v>0.02927727753871736</v>
       </c>
       <c r="T20">
-        <v>0.02695697490194686</v>
+        <v>0.02927727753871735</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.830773949588506</v>
+        <v>0.8452883333333334</v>
       </c>
       <c r="H21">
-        <v>0.830773949588506</v>
+        <v>2.535865</v>
       </c>
       <c r="I21">
-        <v>0.08182488756943149</v>
+        <v>0.07234456630005</v>
       </c>
       <c r="J21">
-        <v>0.08182488756943149</v>
+        <v>0.07234456630005</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N21">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O21">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P21">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q21">
-        <v>11.50274383337935</v>
+        <v>11.79754585107945</v>
       </c>
       <c r="R21">
-        <v>11.50274383337935</v>
+        <v>106.177912659715</v>
       </c>
       <c r="S21">
-        <v>0.01559644229879746</v>
+        <v>0.01194134326918215</v>
       </c>
       <c r="T21">
-        <v>0.01559644229879746</v>
+        <v>0.01194134326918215</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.830773949588506</v>
+        <v>0.8452883333333334</v>
       </c>
       <c r="H22">
-        <v>0.830773949588506</v>
+        <v>2.535865</v>
       </c>
       <c r="I22">
-        <v>0.08182488756943149</v>
+        <v>0.07234456630005</v>
       </c>
       <c r="J22">
-        <v>0.08182488756943149</v>
+        <v>0.07234456630005</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N22">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O22">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P22">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q22">
-        <v>11.34300800221122</v>
+        <v>12.22171604495056</v>
       </c>
       <c r="R22">
-        <v>11.34300800221122</v>
+        <v>109.995444404555</v>
       </c>
       <c r="S22">
-        <v>0.01537985826372274</v>
+        <v>0.01237068357042005</v>
       </c>
       <c r="T22">
-        <v>0.01537985826372274</v>
+        <v>0.01237068357042005</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.830773949588506</v>
+        <v>0.8452883333333334</v>
       </c>
       <c r="H23">
-        <v>0.830773949588506</v>
+        <v>2.535865</v>
       </c>
       <c r="I23">
-        <v>0.08182488756943149</v>
+        <v>0.07234456630005</v>
       </c>
       <c r="J23">
-        <v>0.08182488756943149</v>
+        <v>0.07234456630005</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N23">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O23">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P23">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q23">
-        <v>8.461201360952058</v>
+        <v>8.993872938396668</v>
       </c>
       <c r="R23">
-        <v>8.461201360952058</v>
+        <v>80.94485644557001</v>
       </c>
       <c r="S23">
-        <v>0.01147244872320398</v>
+        <v>0.009103497069009125</v>
       </c>
       <c r="T23">
-        <v>0.01147244872320398</v>
+        <v>0.009103497069009125</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.830773949588506</v>
+        <v>0.8452883333333334</v>
       </c>
       <c r="H24">
-        <v>0.830773949588506</v>
+        <v>2.535865</v>
       </c>
       <c r="I24">
-        <v>0.08182488756943149</v>
+        <v>0.07234456630005</v>
       </c>
       <c r="J24">
-        <v>0.08182488756943149</v>
+        <v>0.07234456630005</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N24">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O24">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P24">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q24">
-        <v>6.625734631418923</v>
+        <v>6.91899100271</v>
       </c>
       <c r="R24">
-        <v>6.625734631418923</v>
+        <v>62.27091902439001</v>
       </c>
       <c r="S24">
-        <v>0.008983759819652527</v>
+        <v>0.007003324901863651</v>
       </c>
       <c r="T24">
-        <v>0.008983759819652527</v>
+        <v>0.007003324901863651</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.830773949588506</v>
+        <v>0.8452883333333334</v>
       </c>
       <c r="H25">
-        <v>0.830773949588506</v>
+        <v>2.535865</v>
       </c>
       <c r="I25">
-        <v>0.08182488756943149</v>
+        <v>0.07234456630005</v>
       </c>
       <c r="J25">
-        <v>0.08182488756943149</v>
+        <v>0.07234456630005</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.04979604542393</v>
+        <v>3.095449666666667</v>
       </c>
       <c r="N25">
-        <v>3.04979604542393</v>
+        <v>9.286349</v>
       </c>
       <c r="O25">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="P25">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="Q25">
-        <v>2.533691106096245</v>
+        <v>2.616547489653889</v>
       </c>
       <c r="R25">
-        <v>2.533691106096245</v>
+        <v>23.548927406885</v>
       </c>
       <c r="S25">
-        <v>0.003435403562107926</v>
+        <v>0.002648439950857666</v>
       </c>
       <c r="T25">
-        <v>0.003435403562107926</v>
+        <v>0.002648439950857666</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.710077405646744</v>
+        <v>0.7877936666666666</v>
       </c>
       <c r="H26">
-        <v>0.710077405646744</v>
+        <v>2.363381</v>
       </c>
       <c r="I26">
-        <v>0.06993720001862981</v>
+        <v>0.06742384687149294</v>
       </c>
       <c r="J26">
-        <v>0.06993720001862981</v>
+        <v>0.06742384687149294</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N26">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O26">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P26">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q26">
-        <v>16.992993192115</v>
+        <v>26.95732477256767</v>
       </c>
       <c r="R26">
-        <v>16.992993192115</v>
+        <v>242.615922953109</v>
       </c>
       <c r="S26">
-        <v>0.02304061027905352</v>
+        <v>0.027285901050226</v>
       </c>
       <c r="T26">
-        <v>0.02304061027905352</v>
+        <v>0.027285901050226</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.710077405646744</v>
+        <v>0.7877936666666666</v>
       </c>
       <c r="H27">
-        <v>0.710077405646744</v>
+        <v>2.363381</v>
       </c>
       <c r="I27">
-        <v>0.06993720001862981</v>
+        <v>0.06742384687149294</v>
       </c>
       <c r="J27">
-        <v>0.06993720001862981</v>
+        <v>0.06742384687149294</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N27">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O27">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P27">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q27">
-        <v>9.831601608440828</v>
+        <v>10.99510254334122</v>
       </c>
       <c r="R27">
-        <v>9.831601608440828</v>
+        <v>98.95592289007099</v>
       </c>
       <c r="S27">
-        <v>0.01333055916153207</v>
+        <v>0.01112911917505978</v>
       </c>
       <c r="T27">
-        <v>0.01333055916153207</v>
+        <v>0.01112911917505978</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.710077405646744</v>
+        <v>0.7877936666666666</v>
       </c>
       <c r="H28">
-        <v>0.710077405646744</v>
+        <v>2.363381</v>
       </c>
       <c r="I28">
-        <v>0.06993720001862981</v>
+        <v>0.06742384687149294</v>
       </c>
       <c r="J28">
-        <v>0.06993720001862981</v>
+        <v>0.06742384687149294</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N28">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O28">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P28">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q28">
-        <v>9.695072526563772</v>
+        <v>11.39042160684078</v>
       </c>
       <c r="R28">
-        <v>9.695072526563772</v>
+        <v>102.513794461567</v>
       </c>
       <c r="S28">
-        <v>0.01314544089945062</v>
+        <v>0.01152925668651246</v>
       </c>
       <c r="T28">
-        <v>0.01314544089945062</v>
+        <v>0.01152925668651246</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.710077405646744</v>
+        <v>0.7877936666666666</v>
       </c>
       <c r="H29">
-        <v>0.710077405646744</v>
+        <v>2.363381</v>
       </c>
       <c r="I29">
-        <v>0.06993720001862981</v>
+        <v>0.06742384687149294</v>
       </c>
       <c r="J29">
-        <v>0.06993720001862981</v>
+        <v>0.06742384687149294</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N29">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O29">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P29">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q29">
-        <v>7.231940666911182</v>
+        <v>8.382129340095334</v>
       </c>
       <c r="R29">
-        <v>7.231940666911182</v>
+        <v>75.439164060858</v>
       </c>
       <c r="S29">
-        <v>0.009805707834029906</v>
+        <v>0.008484297076718144</v>
       </c>
       <c r="T29">
-        <v>0.009805707834029906</v>
+        <v>0.008484297076718144</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.710077405646744</v>
+        <v>0.7877936666666666</v>
       </c>
       <c r="H30">
-        <v>0.710077405646744</v>
+        <v>2.363381</v>
       </c>
       <c r="I30">
-        <v>0.06993720001862981</v>
+        <v>0.06742384687149294</v>
       </c>
       <c r="J30">
-        <v>0.06993720001862981</v>
+        <v>0.06742384687149294</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N30">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O30">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P30">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q30">
-        <v>5.663134309774735</v>
+        <v>6.448376342973999</v>
       </c>
       <c r="R30">
-        <v>5.663134309774735</v>
+        <v>58.035387086766</v>
       </c>
       <c r="S30">
-        <v>0.007678580760569127</v>
+        <v>0.006526974034458229</v>
       </c>
       <c r="T30">
-        <v>0.007678580760569127</v>
+        <v>0.006526974034458229</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.710077405646744</v>
+        <v>0.7877936666666666</v>
       </c>
       <c r="H31">
-        <v>0.710077405646744</v>
+        <v>2.363381</v>
       </c>
       <c r="I31">
-        <v>0.06993720001862981</v>
+        <v>0.06742384687149294</v>
       </c>
       <c r="J31">
-        <v>0.06993720001862981</v>
+        <v>0.06742384687149294</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.04979604542393</v>
+        <v>3.095449666666667</v>
       </c>
       <c r="N31">
-        <v>3.04979604542393</v>
+        <v>9.286349</v>
       </c>
       <c r="O31">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="P31">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="Q31">
-        <v>2.165591263686324</v>
+        <v>2.438575642885444</v>
       </c>
       <c r="R31">
-        <v>2.165591263686324</v>
+        <v>21.947180785969</v>
       </c>
       <c r="S31">
-        <v>0.002936301083994569</v>
+        <v>0.002468298848518333</v>
       </c>
       <c r="T31">
-        <v>0.002936301083994569</v>
+        <v>0.002468298848518333</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.15398383325713</v>
+        <v>4.439607333333334</v>
       </c>
       <c r="H32">
-        <v>4.15398383325713</v>
+        <v>13.318822</v>
       </c>
       <c r="I32">
-        <v>0.4091356743791227</v>
+        <v>0.3799667573855724</v>
       </c>
       <c r="J32">
-        <v>0.4091356743791227</v>
+        <v>0.3799667573855724</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N32">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O32">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P32">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q32">
-        <v>99.40975228524772</v>
+        <v>151.9178711523954</v>
       </c>
       <c r="R32">
-        <v>99.40975228524772</v>
+        <v>1367.260840371558</v>
       </c>
       <c r="S32">
-        <v>0.1347885763530141</v>
+        <v>0.1537695611488682</v>
       </c>
       <c r="T32">
-        <v>0.1347885763530141</v>
+        <v>0.1537695611488682</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.15398383325713</v>
+        <v>4.439607333333334</v>
       </c>
       <c r="H33">
-        <v>4.15398383325713</v>
+        <v>13.318822</v>
       </c>
       <c r="I33">
-        <v>0.4091356743791227</v>
+        <v>0.3799667573855724</v>
       </c>
       <c r="J33">
-        <v>0.4091356743791227</v>
+        <v>0.3799667573855724</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N33">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O33">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P33">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q33">
-        <v>57.51529877125201</v>
+        <v>61.96284629795579</v>
       </c>
       <c r="R33">
-        <v>57.51529877125201</v>
+        <v>557.665616681602</v>
       </c>
       <c r="S33">
-        <v>0.07798435326194619</v>
+        <v>0.06271809636677626</v>
       </c>
       <c r="T33">
-        <v>0.07798435326194619</v>
+        <v>0.06271809636677626</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.15398383325713</v>
+        <v>4.439607333333334</v>
       </c>
       <c r="H34">
-        <v>4.15398383325713</v>
+        <v>13.318822</v>
       </c>
       <c r="I34">
-        <v>0.4091356743791227</v>
+        <v>0.3799667573855724</v>
       </c>
       <c r="J34">
-        <v>0.4091356743791227</v>
+        <v>0.3799667573855724</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N34">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O34">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P34">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q34">
-        <v>56.71659767982639</v>
+        <v>64.19066493572822</v>
       </c>
       <c r="R34">
-        <v>56.71659767982639</v>
+        <v>577.715984421554</v>
       </c>
       <c r="S34">
-        <v>0.07690140334435713</v>
+        <v>0.06497306934428652</v>
       </c>
       <c r="T34">
-        <v>0.07690140334435713</v>
+        <v>0.06497306934428652</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.15398383325713</v>
+        <v>4.439607333333334</v>
       </c>
       <c r="H35">
-        <v>4.15398383325713</v>
+        <v>13.318822</v>
       </c>
       <c r="I35">
-        <v>0.4091356743791227</v>
+        <v>0.3799667573855724</v>
       </c>
       <c r="J35">
-        <v>0.4091356743791227</v>
+        <v>0.3799667573855724</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N35">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O35">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P35">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q35">
-        <v>42.30716873192428</v>
+        <v>47.23744866431068</v>
       </c>
       <c r="R35">
-        <v>42.30716873192428</v>
+        <v>425.1370379787961</v>
       </c>
       <c r="S35">
-        <v>0.0573638190601253</v>
+        <v>0.04781321444148418</v>
       </c>
       <c r="T35">
-        <v>0.0573638190601253</v>
+        <v>0.04781321444148418</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.15398383325713</v>
+        <v>4.439607333333334</v>
       </c>
       <c r="H36">
-        <v>4.15398383325713</v>
+        <v>13.318822</v>
       </c>
       <c r="I36">
-        <v>0.4091356743791227</v>
+        <v>0.3799667573855724</v>
       </c>
       <c r="J36">
-        <v>0.4091356743791227</v>
+        <v>0.3799667573855724</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N36">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O36">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P36">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q36">
-        <v>33.12958303037634</v>
+        <v>36.33979316118801</v>
       </c>
       <c r="R36">
-        <v>33.12958303037634</v>
+        <v>327.058138450692</v>
       </c>
       <c r="S36">
-        <v>0.04492003278531532</v>
+        <v>0.03678273006492438</v>
       </c>
       <c r="T36">
-        <v>0.04492003278531532</v>
+        <v>0.03678273006492438</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.15398383325713</v>
+        <v>4.439607333333334</v>
       </c>
       <c r="H37">
-        <v>4.15398383325713</v>
+        <v>13.318822</v>
       </c>
       <c r="I37">
-        <v>0.4091356743791227</v>
+        <v>0.3799667573855724</v>
       </c>
       <c r="J37">
-        <v>0.4091356743791227</v>
+        <v>0.3799667573855724</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.04979604542393</v>
+        <v>3.095449666666667</v>
       </c>
       <c r="N37">
-        <v>3.04979604542393</v>
+        <v>9.286349</v>
       </c>
       <c r="O37">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="P37">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="Q37">
-        <v>12.66880346742253</v>
+        <v>13.74258104009756</v>
       </c>
       <c r="R37">
-        <v>12.66880346742253</v>
+        <v>123.683229360878</v>
       </c>
       <c r="S37">
-        <v>0.01717748957436462</v>
+        <v>0.01391008601923289</v>
       </c>
       <c r="T37">
-        <v>0.01717748957436462</v>
+        <v>0.01391008601923289</v>
       </c>
     </row>
   </sheetData>
